--- a/biology/Botanique/Albertisia_glabra/Albertisia_glabra.xlsx
+++ b/biology/Botanique/Albertisia_glabra/Albertisia_glabra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albertisia glabra (Diels ex Troupin) Forman est une espèce de plantes à fleurs de la famille des Menispermaceae et du genre Albertisia, présente au Cameroun et en Guinée équatoriale.
 </t>
@@ -511,11 +523,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a d'abord été considérée comme endémique du Cameroun où elle a été observée à Nkolbisson près de Yaoundé (région du Centre) ; sur l'île de Dipikar, à Bipindi (d'après G.P. Tchouto Mbatchou[3]) et au piton rocheux d'Ako'Akas (région du Sud)[4].
-Par la suite elle a été découverte également en Guinée équatoriale, sur l'inselberg de Piedra Nzas dans la Région continentale (Río Muni[5]).
-D'« espèce en danger » (EN), elle a été réévaluée en « espèce vulnérable » (VU), selon les critères de l'UICN[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a d'abord été considérée comme endémique du Cameroun où elle a été observée à Nkolbisson près de Yaoundé (région du Centre) ; sur l'île de Dipikar, à Bipindi (d'après G.P. Tchouto Mbatchou) et au piton rocheux d'Ako'Akas (région du Sud).
+Par la suite elle a été découverte également en Guinée équatoriale, sur l'inselberg de Piedra Nzas dans la Région continentale (Río Muni).
+D'« espèce en danger » (EN), elle a été réévaluée en « espèce vulnérable » (VU), selon les critères de l'UICN.
 </t>
         </is>
       </c>
